--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mdk-Alk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H2">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I2">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J2">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.060228</v>
       </c>
       <c r="O2">
-        <v>0.2773528341768247</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P2">
-        <v>0.2773528341768246</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q2">
-        <v>0.024846833872</v>
+        <v>0.032609098816</v>
       </c>
       <c r="R2">
-        <v>0.223621504848</v>
+        <v>0.2934818893439999</v>
       </c>
       <c r="S2">
-        <v>0.0107853823224153</v>
+        <v>0.08428644171655206</v>
       </c>
       <c r="T2">
-        <v>0.0107853823224153</v>
+        <v>0.08428644171655203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.237638666666667</v>
+        <v>1.624282666666667</v>
       </c>
       <c r="H3">
-        <v>3.712916</v>
+        <v>4.872847999999999</v>
       </c>
       <c r="I3">
-        <v>0.03888686536925432</v>
+        <v>0.08561172663893989</v>
       </c>
       <c r="J3">
-        <v>0.03888686536925433</v>
+        <v>0.08561172663893987</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,27 +629,27 @@
         <v>0.000947</v>
       </c>
       <c r="O3">
-        <v>0.004360980506831589</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P3">
-        <v>0.004360980506831588</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q3">
-        <v>0.0003906812724444444</v>
+        <v>0.0005127318951111111</v>
       </c>
       <c r="R3">
-        <v>0.003516131452</v>
+        <v>0.004614587056</v>
       </c>
       <c r="S3">
-        <v>0.0001695848618471025</v>
+        <v>0.001325284922387839</v>
       </c>
       <c r="T3">
-        <v>0.0001695848618471025</v>
+        <v>0.001325284922387839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.237638666666667</v>
+        <v>3.644449</v>
       </c>
       <c r="H4">
-        <v>3.712916</v>
+        <v>10.933347</v>
       </c>
       <c r="I4">
-        <v>0.03888686536925432</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J4">
-        <v>0.03888686536925433</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05199266666666667</v>
+        <v>0.020076</v>
       </c>
       <c r="N4">
-        <v>0.155978</v>
+        <v>0.060228</v>
       </c>
       <c r="O4">
-        <v>0.7182861853163438</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P4">
-        <v>0.7182861853163438</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q4">
-        <v>0.06434813464977777</v>
+        <v>0.07316595812400001</v>
       </c>
       <c r="R4">
-        <v>0.579133211848</v>
+        <v>0.658493623116</v>
       </c>
       <c r="S4">
-        <v>0.02793189818499192</v>
+        <v>0.1891158752914803</v>
       </c>
       <c r="T4">
-        <v>0.02793189818499193</v>
+        <v>0.1891158752914803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>10.933347</v>
       </c>
       <c r="I5">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="J5">
-        <v>0.1145093486694395</v>
+        <v>0.1920894545885022</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.020076</v>
+        <v>0.0003156666666666667</v>
       </c>
       <c r="N5">
-        <v>0.060228</v>
+        <v>0.000947</v>
       </c>
       <c r="O5">
-        <v>0.2773528341768247</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P5">
-        <v>0.2773528341768246</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q5">
-        <v>0.07316595812400001</v>
+        <v>0.001150431067666667</v>
       </c>
       <c r="R5">
-        <v>0.658493623116</v>
+        <v>0.010353879609</v>
       </c>
       <c r="S5">
-        <v>0.03175949239321126</v>
+        <v>0.002973579297021848</v>
       </c>
       <c r="T5">
-        <v>0.03175949239321126</v>
+        <v>0.002973579297021848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.644449</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H6">
-        <v>10.933347</v>
+        <v>8.22472</v>
       </c>
       <c r="I6">
-        <v>0.1145093486694395</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J6">
-        <v>0.1145093486694395</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.0003156666666666667</v>
+        <v>0.020076</v>
       </c>
       <c r="N6">
-        <v>0.000947</v>
+        <v>0.060228</v>
       </c>
       <c r="O6">
-        <v>0.004360980506831589</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P6">
-        <v>0.004360980506831588</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q6">
-        <v>0.001150431067666667</v>
+        <v>0.05503982624</v>
       </c>
       <c r="R6">
-        <v>0.010353879609</v>
+        <v>0.49535843616</v>
       </c>
       <c r="S6">
-        <v>0.0004993730373974075</v>
+        <v>0.1422643150196682</v>
       </c>
       <c r="T6">
-        <v>0.0004993730373974074</v>
+        <v>0.1422643150196681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.644449</v>
+        <v>2.741573333333333</v>
       </c>
       <c r="H7">
-        <v>10.933347</v>
+        <v>8.22472</v>
       </c>
       <c r="I7">
-        <v>0.1145093486694395</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="J7">
-        <v>0.1145093486694395</v>
+        <v>0.1445012198865677</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05199266666666667</v>
+        <v>0.0003156666666666667</v>
       </c>
       <c r="N7">
-        <v>0.155978</v>
+        <v>0.000947</v>
       </c>
       <c r="O7">
-        <v>0.7182861853163438</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P7">
-        <v>0.7182861853163438</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q7">
-        <v>0.1894846220406667</v>
+        <v>0.0008654233155555556</v>
       </c>
       <c r="R7">
-        <v>1.705361598366</v>
+        <v>0.00778880984</v>
       </c>
       <c r="S7">
-        <v>0.08225048323883087</v>
+        <v>0.002236904866899544</v>
       </c>
       <c r="T7">
-        <v>0.08225048323883087</v>
+        <v>0.002236904866899544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1.671495666666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H8">
-        <v>5.014487000000001</v>
+        <v>7.03281</v>
       </c>
       <c r="I8">
-        <v>0.05251874291389196</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J8">
-        <v>0.05251874291389196</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,27 +939,27 @@
         <v>0.060228</v>
       </c>
       <c r="O8">
-        <v>0.2773528341768247</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P8">
-        <v>0.2773528341768246</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q8">
-        <v>0.03355694700400001</v>
+        <v>0.04706356452</v>
       </c>
       <c r="R8">
-        <v>0.302012523036</v>
+        <v>0.42357208068</v>
       </c>
       <c r="S8">
-        <v>0.01456622219457196</v>
+        <v>0.1216476545479326</v>
       </c>
       <c r="T8">
-        <v>0.01456622219457196</v>
+        <v>0.1216476545479326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1.671495666666667</v>
+        <v>2.34427</v>
       </c>
       <c r="H9">
-        <v>5.014487000000001</v>
+        <v>7.03281</v>
       </c>
       <c r="I9">
-        <v>0.05251874291389196</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="J9">
-        <v>0.05251874291389196</v>
+        <v>0.1235603916279767</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,27 +1001,27 @@
         <v>0.000947</v>
       </c>
       <c r="O9">
-        <v>0.004360980506831589</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P9">
-        <v>0.004360980506831588</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q9">
-        <v>0.0005276354654444445</v>
+        <v>0.0007400078966666667</v>
       </c>
       <c r="R9">
-        <v>0.004748719189000001</v>
+        <v>0.00666007107</v>
       </c>
       <c r="S9">
-        <v>0.0002290332140907825</v>
+        <v>0.001912737080044036</v>
       </c>
       <c r="T9">
-        <v>0.0002290332140907824</v>
+        <v>0.001912737080044036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.671495666666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H10">
-        <v>5.014487000000001</v>
+        <v>12.847605</v>
       </c>
       <c r="I10">
-        <v>0.05251874291389196</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J10">
-        <v>0.05251874291389196</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05199266666666667</v>
+        <v>0.020076</v>
       </c>
       <c r="N10">
-        <v>0.155978</v>
+        <v>0.060228</v>
       </c>
       <c r="O10">
-        <v>0.7182861853163438</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P10">
-        <v>0.7182861853163438</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q10">
-        <v>0.08690551703177779</v>
+        <v>0.08597617265999999</v>
       </c>
       <c r="R10">
-        <v>0.7821496532860002</v>
+        <v>0.7737855539399998</v>
       </c>
       <c r="S10">
-        <v>0.03772348750522921</v>
+        <v>0.2222271062076598</v>
       </c>
       <c r="T10">
-        <v>0.03772348750522921</v>
+        <v>0.2222271062076598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.32861766666667</v>
+        <v>4.282534999999999</v>
       </c>
       <c r="H11">
-        <v>54.985853</v>
+        <v>12.847605</v>
       </c>
       <c r="I11">
-        <v>0.5758889947482273</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="J11">
-        <v>0.5758889947482273</v>
+        <v>0.225721312715906</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.020076</v>
+        <v>0.0003156666666666667</v>
       </c>
       <c r="N11">
-        <v>0.060228</v>
+        <v>0.000947</v>
       </c>
       <c r="O11">
-        <v>0.2773528341768247</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P11">
-        <v>0.2773528341768246</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q11">
-        <v>0.367965328276</v>
+        <v>0.001351853548333333</v>
       </c>
       <c r="R11">
-        <v>3.311687954484</v>
+        <v>0.012166681935</v>
       </c>
       <c r="S11">
-        <v>0.1597244448646633</v>
+        <v>0.003494206508246228</v>
       </c>
       <c r="T11">
-        <v>0.1597244448646633</v>
+        <v>0.003494206508246228</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.32861766666667</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H12">
-        <v>54.985853</v>
+        <v>13.006667</v>
       </c>
       <c r="I12">
-        <v>0.5758889947482273</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J12">
-        <v>0.5758889947482273</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0003156666666666667</v>
+        <v>0.020076</v>
       </c>
       <c r="N12">
-        <v>0.000947</v>
+        <v>0.060228</v>
       </c>
       <c r="O12">
-        <v>0.004360980506831589</v>
+        <v>0.9845198201879853</v>
       </c>
       <c r="P12">
-        <v>0.004360980506831588</v>
+        <v>0.9845198201879852</v>
       </c>
       <c r="Q12">
-        <v>0.005785733643444445</v>
+        <v>0.087040615564</v>
       </c>
       <c r="R12">
-        <v>0.052071602791</v>
+        <v>0.783365540076</v>
       </c>
       <c r="S12">
-        <v>0.002511440680195859</v>
+        <v>0.2249784274046925</v>
       </c>
       <c r="T12">
-        <v>0.002511440680195858</v>
+        <v>0.2249784274046925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,418 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.32861766666667</v>
+        <v>4.335555666666667</v>
       </c>
       <c r="H13">
-        <v>54.985853</v>
+        <v>13.006667</v>
       </c>
       <c r="I13">
-        <v>0.5758889947482273</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="J13">
-        <v>0.5758889947482273</v>
+        <v>0.2285158945421077</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05199266666666667</v>
+        <v>0.0003156666666666667</v>
       </c>
       <c r="N13">
-        <v>0.155978</v>
+        <v>0.000947</v>
       </c>
       <c r="O13">
-        <v>0.7182861853163438</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="P13">
-        <v>0.7182861853163438</v>
+        <v>0.01548017981201471</v>
       </c>
       <c r="Q13">
-        <v>0.9529537088037777</v>
+        <v>0.001368590405444445</v>
       </c>
       <c r="R13">
-        <v>8.576583379234</v>
+        <v>0.012317313649</v>
       </c>
       <c r="S13">
-        <v>0.4136531092033681</v>
+        <v>0.003537467137415219</v>
       </c>
       <c r="T13">
-        <v>0.4136531092033681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4.637834666666667</v>
-      </c>
-      <c r="H14">
-        <v>13.913504</v>
-      </c>
-      <c r="I14">
-        <v>0.1457217337700561</v>
-      </c>
-      <c r="J14">
-        <v>0.1457217337700561</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.020076</v>
-      </c>
-      <c r="N14">
-        <v>0.060228</v>
-      </c>
-      <c r="O14">
-        <v>0.2773528341768247</v>
-      </c>
-      <c r="P14">
-        <v>0.2773528341768246</v>
-      </c>
-      <c r="Q14">
-        <v>0.093109168768</v>
-      </c>
-      <c r="R14">
-        <v>0.8379825189119999</v>
-      </c>
-      <c r="S14">
-        <v>0.04041633586228575</v>
-      </c>
-      <c r="T14">
-        <v>0.04041633586228574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>4.637834666666667</v>
-      </c>
-      <c r="H15">
-        <v>13.913504</v>
-      </c>
-      <c r="I15">
-        <v>0.1457217337700561</v>
-      </c>
-      <c r="J15">
-        <v>0.1457217337700561</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.0003156666666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.000947</v>
-      </c>
-      <c r="O15">
-        <v>0.004360980506831589</v>
-      </c>
-      <c r="P15">
-        <v>0.004360980506831588</v>
-      </c>
-      <c r="Q15">
-        <v>0.001464009809777778</v>
-      </c>
-      <c r="R15">
-        <v>0.013176088288</v>
-      </c>
-      <c r="S15">
-        <v>0.000635489640392917</v>
-      </c>
-      <c r="T15">
-        <v>0.0006354896403929169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.637834666666667</v>
-      </c>
-      <c r="H16">
-        <v>13.913504</v>
-      </c>
-      <c r="I16">
-        <v>0.1457217337700561</v>
-      </c>
-      <c r="J16">
-        <v>0.1457217337700561</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.05199266666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.155978</v>
-      </c>
-      <c r="O16">
-        <v>0.7182861853163438</v>
-      </c>
-      <c r="P16">
-        <v>0.7182861853163438</v>
-      </c>
-      <c r="Q16">
-        <v>0.2411333918791111</v>
-      </c>
-      <c r="R16">
-        <v>2.170200526912</v>
-      </c>
-      <c r="S16">
-        <v>0.1046699082673774</v>
-      </c>
-      <c r="T16">
-        <v>0.1046699082673774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>2.306614666666666</v>
-      </c>
-      <c r="H17">
-        <v>6.919843999999999</v>
-      </c>
-      <c r="I17">
-        <v>0.07247431452913082</v>
-      </c>
-      <c r="J17">
-        <v>0.07247431452913082</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.020076</v>
-      </c>
-      <c r="N17">
-        <v>0.060228</v>
-      </c>
-      <c r="O17">
-        <v>0.2773528341768247</v>
-      </c>
-      <c r="P17">
-        <v>0.2773528341768246</v>
-      </c>
-      <c r="Q17">
-        <v>0.046307596048</v>
-      </c>
-      <c r="R17">
-        <v>0.4167683644319999</v>
-      </c>
-      <c r="S17">
-        <v>0.02010095653967706</v>
-      </c>
-      <c r="T17">
-        <v>0.02010095653967705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>2.306614666666666</v>
-      </c>
-      <c r="H18">
-        <v>6.919843999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.07247431452913082</v>
-      </c>
-      <c r="J18">
-        <v>0.07247431452913082</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.0003156666666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.000947</v>
-      </c>
-      <c r="O18">
-        <v>0.004360980506831589</v>
-      </c>
-      <c r="P18">
-        <v>0.004360980506831588</v>
-      </c>
-      <c r="Q18">
-        <v>0.000728121363111111</v>
-      </c>
-      <c r="R18">
-        <v>0.006553092268</v>
-      </c>
-      <c r="S18">
-        <v>0.0003160590729075209</v>
-      </c>
-      <c r="T18">
-        <v>0.0003160590729075209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>2.306614666666666</v>
-      </c>
-      <c r="H19">
-        <v>6.919843999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.07247431452913082</v>
-      </c>
-      <c r="J19">
-        <v>0.07247431452913082</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.05199266666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.155978</v>
-      </c>
-      <c r="O19">
-        <v>0.7182861853163438</v>
-      </c>
-      <c r="P19">
-        <v>0.7182861853163438</v>
-      </c>
-      <c r="Q19">
-        <v>0.1199270474924444</v>
-      </c>
-      <c r="R19">
-        <v>1.079343427432</v>
-      </c>
-      <c r="S19">
-        <v>0.05205729891654625</v>
-      </c>
-      <c r="T19">
-        <v>0.05205729891654625</v>
+        <v>0.003537467137415218</v>
       </c>
     </row>
   </sheetData>
